--- a/Japtool Project Schedule Offshore v1.0.xlsx
+++ b/Japtool Project Schedule Offshore v1.0.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$B$11:$L$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Master!$A$1:$AE$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Master!$A$1:$AE$35</definedName>
   </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Update: 16/6/2015</t>
   </si>
@@ -121,7 +121,16 @@
     <t>Code design</t>
   </si>
   <si>
+    <t>DuongTD2</t>
+  </si>
+  <si>
+    <t>DongDL1</t>
+  </si>
+  <si>
     <t>QuyetND2</t>
+  </si>
+  <si>
+    <t>19/6/2015</t>
   </si>
 </sst>
 </file>
@@ -387,58 +396,58 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,11 +751,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -789,26 +798,26 @@
       <c r="E3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="18">
       <c r="A4" s="10"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:28" ht="21" customHeight="1">
       <c r="F5" s="3"/>
@@ -824,12 +833,12 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:28" ht="22.5" customHeight="1">
       <c r="B8" s="6"/>
@@ -866,39 +875,39 @@
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="22"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="21"/>
     </row>
     <row r="10" spans="1:28" ht="26.25" customHeight="1">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
@@ -911,22 +920,22 @@
       <c r="L10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="25"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="24"/>
     </row>
     <row r="11" spans="1:28">
       <c r="B11" s="9"/>
@@ -935,7 +944,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="28"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -968,17 +977,14 @@
         <v>31</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="29" t="s">
-        <v>26</v>
-      </c>
+      <c r="H12" s="13"/>
       <c r="I12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -1004,10 +1010,12 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -1035,10 +1043,12 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1066,10 +1076,12 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1097,10 +1109,12 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1127,9 +1141,13 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -1152,26 +1170,14 @@
       <c r="AB17" s="9"/>
     </row>
     <row r="18" spans="2:28">
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -1193,17 +1199,26 @@
       <c r="AB18" s="9"/>
     </row>
     <row r="19" spans="2:28">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="H19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -1229,10 +1244,12 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1260,10 +1277,12 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1291,10 +1310,12 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1321,9 +1342,13 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1346,19 +1371,17 @@
       <c r="AB23" s="9"/>
     </row>
     <row r="24" spans="2:28">
-      <c r="B24" s="9">
-        <v>3</v>
-      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1385,11 +1408,9 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1412,17 +1433,22 @@
       <c r="AB25" s="9"/>
     </row>
     <row r="26" spans="2:28">
-      <c r="B26" s="9"/>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -1448,10 +1474,12 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1479,10 +1507,12 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1509,9 +1539,13 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -1538,9 +1572,13 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -1567,9 +1605,13 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -1598,7 +1640,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -1620,634 +1662,22 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
     </row>
-    <row r="33" spans="2:28">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-    </row>
-    <row r="34" spans="2:28">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-    </row>
-    <row r="35" spans="2:28">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-    </row>
-    <row r="36" spans="2:28">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-    </row>
-    <row r="37" spans="2:28">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-    </row>
-    <row r="38" spans="2:28">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-    </row>
-    <row r="39" spans="2:28">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-    </row>
-    <row r="40" spans="2:28">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-    </row>
-    <row r="41" spans="2:28">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-    </row>
-    <row r="42" spans="2:28">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-    </row>
-    <row r="43" spans="2:28">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-    </row>
-    <row r="44" spans="2:28">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-    </row>
-    <row r="45" spans="2:28">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-    </row>
-    <row r="46" spans="2:28">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-    </row>
-    <row r="47" spans="2:28">
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-    </row>
-    <row r="48" spans="2:28">
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-    </row>
-    <row r="49" spans="2:28">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-    </row>
-    <row r="50" spans="2:28">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-    </row>
-    <row r="51" spans="2:28">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-    </row>
-    <row r="52" spans="2:28">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-    </row>
-    <row r="53" spans="2:28">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-    </row>
   </sheetData>
   <autoFilter ref="B11:L11"/>
   <mergeCells count="9">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M9:AB10"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M9:AB10"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" showErrorMessage="1" sqref="H12">
-      <formula1>"TuyenTV1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" sqref="H18">
-      <formula1>"QuyetND2"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" showErrorMessage="1" sqref="H12:H32">
+      <formula1>"TuyenTV1,NamMH,QuyetND2,DongDL1,DuongTD2,TuanNT22,XuanDT2"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Japtool Project Schedule Offshore v1.0.xlsx
+++ b/Japtool Project Schedule Offshore v1.0.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$B$11:$L$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$B$9:$L$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Master!$A$1:$AE$35</definedName>
   </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Update: 16/6/2015</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Layout master</t>
-  </si>
-  <si>
-    <t>layout</t>
   </si>
   <si>
     <t>Code design</t>
@@ -755,7 +752,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -974,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E12" s="9"/>
       <c r="G12" s="9"/>
@@ -983,7 +980,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -1047,7 +1044,7 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1076,11 +1073,11 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1113,7 +1110,7 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1146,7 +1143,7 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1217,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -1281,7 +1278,7 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1314,7 +1311,7 @@
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1347,7 +1344,7 @@
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1380,7 +1377,7 @@
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1447,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -1478,7 +1475,7 @@
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1577,7 +1574,7 @@
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1663,7 +1660,10 @@
       <c r="AB32" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B11:L11"/>
+  <autoFilter ref="B9:L17">
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+  </autoFilter>
   <mergeCells count="9">
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>

--- a/Japtool Project Schedule Offshore v1.0.xlsx
+++ b/Japtool Project Schedule Offshore v1.0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>Update: 16/6/2015</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>℗</t>
+  </si>
+  <si>
+    <t>∆</t>
   </si>
 </sst>
 </file>
@@ -507,6 +510,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,9 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,7 +843,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -883,30 +886,30 @@
       <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="18">
       <c r="A4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1">
       <c r="F5" s="3"/>
@@ -916,30 +919,30 @@
       <c r="J5" s="3"/>
     </row>
     <row r="7" spans="1:29" ht="24.75" customHeight="1">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="24" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:29" ht="22.5" customHeight="1">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1327,7 +1330,9 @@
       <c r="H19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="J19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1365,7 +1370,9 @@
       <c r="H20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1399,7 +1406,9 @@
       <c r="H21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1433,7 +1442,9 @@
       <c r="H22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1467,7 +1478,9 @@
       <c r="H23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1501,7 +1514,9 @@
       <c r="H24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
